--- a/Preparation and Exploration/Student-mat_DataDictionary.xlsx
+++ b/Preparation and Exploration/Student-mat_DataDictionary.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasanna/UNCC_stuff/6162-KnowledgeDiscoveryInDatabases/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasanna/UNCC_stuff/Git_repository/group10kdd/Preparation and Exploration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16497372-2631-1244-984B-72633AEA190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54BB311-7E55-114E-A57C-34EC72E80D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40320" yWindow="3060" windowWidth="27640" windowHeight="16940" xr2:uid="{F9F4B3C8-0445-A447-B234-A31C52F29398}"/>
+    <workbookView xWindow="660" yWindow="860" windowWidth="36500" windowHeight="19100" xr2:uid="{F9F4B3C8-0445-A447-B234-A31C52F29398}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="61">
   <si>
     <t>school</t>
   </si>
@@ -168,9 +168,6 @@
     <t>A, T</t>
   </si>
   <si>
-    <t>Keep it categorical for now.</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -205,13 +202,28 @@
   </si>
   <si>
     <t>binary</t>
+  </si>
+  <si>
+    <t>Dummy Code to 0 and 1</t>
+  </si>
+  <si>
+    <t>Retain Categories</t>
+  </si>
+  <si>
+    <t>Dummy code with One-hot Encoding</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>drop for classication models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,16 +231,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,13 +262,158 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,400 +728,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAC6E2F-119D-564A-BEB8-E6A4EC8A9700}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>70</v>
+      </c>
+      <c r="O15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16">
+        <v>395</v>
+      </c>
+      <c r="L16">
+        <f>$K$16*L15/100</f>
+        <v>316</v>
+      </c>
+      <c r="M16">
+        <f>$K$16*M15/100</f>
+        <v>79</v>
+      </c>
+      <c r="N16">
+        <f>$K$16*N15/100</f>
+        <v>276.5</v>
+      </c>
+      <c r="O16">
+        <f>$K$16*O15/100</f>
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>56</v>
-      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>